--- a/PhoenixCI/Excel_Template/30723.xlsx
+++ b/PhoenixCI/Excel_Template/30723.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F4E2A13-1617-45A6-8B15-D3E9154DA01D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DFDC60-5D68-46A8-8E37-7DCFE1C6E34F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8505" windowHeight="4980"/>
   </bookViews>
   <sheets>
     <sheet name="30720" sheetId="4216" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -396,120 +395,120 @@
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="189" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>

--- a/PhoenixCI/Excel_Template/30723.xlsx
+++ b/PhoenixCI/Excel_Template/30723.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DFDC60-5D68-46A8-8E37-7DCFE1C6E34F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F4E2A13-1617-45A6-8B15-D3E9154DA01D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8505" windowHeight="4980"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="30720" sheetId="4216" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -395,120 +396,120 @@
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="189" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
